--- a/data/outputs/数学期刊(下)_altmetric/69Doklady Mathematics.xlsx
+++ b/data/outputs/数学期刊(下)_altmetric/69Doklady Mathematics.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:CE204"/>
+  <dimension ref="A1:CF204"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -782,6 +782,11 @@
           <t>citeulike</t>
         </is>
       </c>
+      <c r="CF1" s="1" t="inlineStr">
+        <is>
+          <t>altmetric_score</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -1021,6 +1026,9 @@
         <v>0</v>
       </c>
       <c r="CE2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF2" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1264,6 +1272,9 @@
       <c r="CE3" t="n">
         <v>0</v>
       </c>
+      <c r="CF3" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -1517,6 +1528,9 @@
       <c r="CE4" t="n">
         <v>0</v>
       </c>
+      <c r="CF4" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -1760,6 +1774,9 @@
         <v>0</v>
       </c>
       <c r="CE5" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF5" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1991,6 +2008,9 @@
       <c r="CE6" t="n">
         <v>0</v>
       </c>
+      <c r="CF6" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -2242,6 +2262,9 @@
         <v>0</v>
       </c>
       <c r="CE7" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF7" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2477,6 +2500,9 @@
       <c r="CE8" t="n">
         <v>0</v>
       </c>
+      <c r="CF8" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -2726,6 +2752,9 @@
       <c r="CE9" t="n">
         <v>0</v>
       </c>
+      <c r="CF9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -2961,6 +2990,9 @@
         <v>0</v>
       </c>
       <c r="CE10" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF10" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3204,6 +3236,9 @@
       <c r="CE11" t="n">
         <v>0</v>
       </c>
+      <c r="CF11" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -3439,6 +3474,9 @@
         <v>0</v>
       </c>
       <c r="CE12" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF12" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3690,6 +3728,9 @@
       <c r="CE13" t="n">
         <v>0</v>
       </c>
+      <c r="CF13" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -3937,6 +3978,9 @@
         <v>0</v>
       </c>
       <c r="CE14" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF14" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4180,6 +4224,9 @@
       <c r="CE15" t="n">
         <v>0</v>
       </c>
+      <c r="CF15" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -4429,6 +4476,9 @@
       <c r="CE16" t="n">
         <v>0</v>
       </c>
+      <c r="CF16" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -4680,6 +4730,9 @@
         <v>0</v>
       </c>
       <c r="CE17" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF17" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4931,6 +4984,9 @@
       <c r="CE18" t="n">
         <v>0</v>
       </c>
+      <c r="CF18" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -5176,6 +5232,9 @@
       <c r="CE19" t="n">
         <v>0</v>
       </c>
+      <c r="CF19" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -5411,6 +5470,9 @@
         <v>0</v>
       </c>
       <c r="CE20" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF20" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5650,6 +5712,9 @@
       <c r="CE21" t="n">
         <v>0</v>
       </c>
+      <c r="CF21" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -5887,6 +5952,9 @@
       <c r="CE22" t="n">
         <v>0</v>
       </c>
+      <c r="CF22" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -6138,6 +6206,9 @@
       <c r="CE23" t="n">
         <v>0</v>
       </c>
+      <c r="CF23" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -6387,6 +6458,9 @@
       <c r="CE24" t="n">
         <v>0</v>
       </c>
+      <c r="CF24" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -6640,6 +6714,9 @@
       <c r="CE25" t="n">
         <v>0</v>
       </c>
+      <c r="CF25" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -6893,6 +6970,9 @@
       <c r="CE26" t="n">
         <v>0</v>
       </c>
+      <c r="CF26" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -7126,6 +7206,9 @@
       <c r="CE27" t="n">
         <v>0</v>
       </c>
+      <c r="CF27" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -7367,6 +7450,9 @@
       <c r="CE28" t="n">
         <v>0</v>
       </c>
+      <c r="CF28" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -7612,6 +7698,9 @@
       <c r="CE29" t="n">
         <v>0</v>
       </c>
+      <c r="CF29" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -7847,6 +7936,9 @@
         <v>0</v>
       </c>
       <c r="CE30" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF30" t="n">
         <v>0</v>
       </c>
     </row>
@@ -8094,6 +8186,9 @@
       <c r="CE31" t="n">
         <v>0</v>
       </c>
+      <c r="CF31" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -8343,6 +8438,9 @@
       <c r="CE32" t="n">
         <v>0</v>
       </c>
+      <c r="CF32" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -8588,6 +8686,9 @@
       <c r="CE33" t="n">
         <v>0</v>
       </c>
+      <c r="CF33" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -8841,6 +8942,9 @@
       <c r="CE34" t="n">
         <v>0</v>
       </c>
+      <c r="CF34" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -9090,6 +9194,9 @@
       <c r="CE35" t="n">
         <v>0</v>
       </c>
+      <c r="CF35" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -9339,6 +9446,9 @@
       <c r="CE36" t="n">
         <v>0</v>
       </c>
+      <c r="CF36" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -9590,6 +9700,9 @@
         <v>0</v>
       </c>
       <c r="CE37" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF37" t="n">
         <v>0</v>
       </c>
     </row>
@@ -9829,6 +9942,9 @@
       <c r="CE38" t="n">
         <v>0</v>
       </c>
+      <c r="CF38" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -10080,6 +10196,9 @@
         <v>0</v>
       </c>
       <c r="CE39" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF39" t="n">
         <v>0</v>
       </c>
     </row>
@@ -10319,6 +10438,9 @@
       <c r="CE40" t="n">
         <v>0</v>
       </c>
+      <c r="CF40" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -10568,6 +10690,9 @@
       <c r="CE41" t="n">
         <v>0</v>
       </c>
+      <c r="CF41" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -10810,6 +10935,9 @@
       </c>
       <c r="CE42" t="n">
         <v>0</v>
+      </c>
+      <c r="CF42" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="43">
@@ -11056,6 +11184,9 @@
       <c r="CE43" t="n">
         <v>0</v>
       </c>
+      <c r="CF43" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -11301,6 +11432,9 @@
       <c r="CE44" t="n">
         <v>0</v>
       </c>
+      <c r="CF44" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -11546,6 +11680,9 @@
       <c r="CE45" t="n">
         <v>0</v>
       </c>
+      <c r="CF45" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -11795,6 +11932,9 @@
       <c r="CE46" t="n">
         <v>0</v>
       </c>
+      <c r="CF46" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -12030,6 +12170,9 @@
         <v>0</v>
       </c>
       <c r="CE47" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF47" t="n">
         <v>0</v>
       </c>
     </row>
@@ -12265,6 +12408,9 @@
       <c r="CE48" t="n">
         <v>0</v>
       </c>
+      <c r="CF48" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -12514,6 +12660,9 @@
       <c r="CE49" t="n">
         <v>0</v>
       </c>
+      <c r="CF49" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -12757,6 +12906,9 @@
         <v>0</v>
       </c>
       <c r="CE50" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF50" t="n">
         <v>0</v>
       </c>
     </row>
@@ -13000,6 +13152,9 @@
       <c r="CE51" t="n">
         <v>0</v>
       </c>
+      <c r="CF51" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -13245,6 +13400,9 @@
       <c r="CE52" t="n">
         <v>0</v>
       </c>
+      <c r="CF52" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -13488,6 +13646,9 @@
         <v>0</v>
       </c>
       <c r="CE53" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF53" t="n">
         <v>0</v>
       </c>
     </row>
@@ -13735,6 +13896,9 @@
       <c r="CE54" t="n">
         <v>0</v>
       </c>
+      <c r="CF54" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -13988,6 +14152,9 @@
       <c r="CE55" t="n">
         <v>0</v>
       </c>
+      <c r="CF55" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -14239,6 +14406,9 @@
         <v>0</v>
       </c>
       <c r="CE56" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF56" t="n">
         <v>0</v>
       </c>
     </row>
@@ -14490,6 +14660,9 @@
       <c r="CE57" t="n">
         <v>0</v>
       </c>
+      <c r="CF57" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -14735,6 +14908,9 @@
       <c r="CE58" t="n">
         <v>0</v>
       </c>
+      <c r="CF58" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -14984,6 +15160,9 @@
       <c r="CE59" t="n">
         <v>0</v>
       </c>
+      <c r="CF59" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -15227,6 +15406,9 @@
         <v>0</v>
       </c>
       <c r="CE60" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF60" t="n">
         <v>0</v>
       </c>
     </row>
@@ -15474,6 +15656,9 @@
       <c r="CE61" t="n">
         <v>0</v>
       </c>
+      <c r="CF61" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -15723,6 +15908,9 @@
       <c r="CE62" t="n">
         <v>0</v>
       </c>
+      <c r="CF62" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -15976,6 +16164,9 @@
       <c r="CE63" t="n">
         <v>0</v>
       </c>
+      <c r="CF63" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -16223,6 +16414,9 @@
         <v>0</v>
       </c>
       <c r="CE64" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF64" t="n">
         <v>0</v>
       </c>
     </row>
@@ -16466,6 +16660,9 @@
       <c r="CE65" t="n">
         <v>0</v>
       </c>
+      <c r="CF65" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -16699,6 +16896,9 @@
       <c r="CE66" t="n">
         <v>0</v>
       </c>
+      <c r="CF66" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -16938,6 +17138,9 @@
         <v>0</v>
       </c>
       <c r="CE67" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF67" t="n">
         <v>0</v>
       </c>
     </row>
@@ -17177,6 +17380,9 @@
       <c r="CE68" t="n">
         <v>0</v>
       </c>
+      <c r="CF68" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -17428,6 +17634,9 @@
       <c r="CE69" t="n">
         <v>0</v>
       </c>
+      <c r="CF69" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -17669,6 +17878,9 @@
       <c r="CE70" t="n">
         <v>0</v>
       </c>
+      <c r="CF70" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -17912,6 +18124,9 @@
         <v>0</v>
       </c>
       <c r="CE71" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF71" t="n">
         <v>0</v>
       </c>
     </row>
@@ -18151,6 +18366,9 @@
       <c r="CE72" t="n">
         <v>0</v>
       </c>
+      <c r="CF72" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -18400,6 +18618,9 @@
       <c r="CE73" t="n">
         <v>0</v>
       </c>
+      <c r="CF73" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -18649,6 +18870,9 @@
       <c r="CE74" t="n">
         <v>0</v>
       </c>
+      <c r="CF74" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -18886,6 +19110,9 @@
       <c r="CE75" t="n">
         <v>0</v>
       </c>
+      <c r="CF75" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -19125,6 +19352,9 @@
         <v>0</v>
       </c>
       <c r="CE76" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF76" t="n">
         <v>0</v>
       </c>
     </row>
@@ -19368,6 +19598,9 @@
       <c r="CE77" t="n">
         <v>0</v>
       </c>
+      <c r="CF77" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
@@ -19617,6 +19850,9 @@
       <c r="CE78" t="n">
         <v>0</v>
       </c>
+      <c r="CF78" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
@@ -19864,6 +20100,9 @@
       <c r="CE79" t="n">
         <v>0</v>
       </c>
+      <c r="CF79" t="n">
+        <v>1.35</v>
+      </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
@@ -20107,6 +20346,9 @@
         <v>0</v>
       </c>
       <c r="CE80" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF80" t="n">
         <v>0</v>
       </c>
     </row>
@@ -20358,6 +20600,9 @@
       <c r="CE81" t="n">
         <v>0</v>
       </c>
+      <c r="CF81" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
@@ -20591,6 +20836,9 @@
       <c r="CE82" t="n">
         <v>0</v>
       </c>
+      <c r="CF82" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
@@ -20840,6 +21088,9 @@
       <c r="CE83" t="n">
         <v>0</v>
       </c>
+      <c r="CF83" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
@@ -21089,6 +21340,9 @@
       <c r="CE84" t="n">
         <v>0</v>
       </c>
+      <c r="CF84" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
@@ -21334,6 +21588,9 @@
       <c r="CE85" t="n">
         <v>0</v>
       </c>
+      <c r="CF85" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
@@ -21573,6 +21830,9 @@
         <v>0</v>
       </c>
       <c r="CE86" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF86" t="n">
         <v>0</v>
       </c>
     </row>
@@ -21816,6 +22076,9 @@
       <c r="CE87" t="n">
         <v>0</v>
       </c>
+      <c r="CF87" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
@@ -22065,6 +22328,9 @@
       <c r="CE88" t="n">
         <v>0</v>
       </c>
+      <c r="CF88" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
@@ -22314,6 +22580,9 @@
       <c r="CE89" t="n">
         <v>0</v>
       </c>
+      <c r="CF89" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
@@ -22563,6 +22832,9 @@
       <c r="CE90" t="n">
         <v>0</v>
       </c>
+      <c r="CF90" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
@@ -22816,6 +23088,9 @@
       <c r="CE91" t="n">
         <v>0</v>
       </c>
+      <c r="CF91" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
@@ -23069,6 +23344,9 @@
       <c r="CE92" t="n">
         <v>0</v>
       </c>
+      <c r="CF92" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
@@ -23322,6 +23600,9 @@
       <c r="CE93" t="n">
         <v>0</v>
       </c>
+      <c r="CF93" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
@@ -23569,6 +23850,9 @@
         <v>0</v>
       </c>
       <c r="CE94" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF94" t="n">
         <v>0</v>
       </c>
     </row>
@@ -23816,6 +24100,9 @@
       <c r="CE95" t="n">
         <v>0</v>
       </c>
+      <c r="CF95" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
@@ -24065,6 +24352,9 @@
       <c r="CE96" t="n">
         <v>0</v>
       </c>
+      <c r="CF96" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
@@ -24310,6 +24600,9 @@
       <c r="CE97" t="n">
         <v>0</v>
       </c>
+      <c r="CF97" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
@@ -24555,6 +24848,9 @@
       <c r="CE98" t="n">
         <v>0</v>
       </c>
+      <c r="CF98" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
@@ -24800,6 +25096,9 @@
       <c r="CE99" t="n">
         <v>0</v>
       </c>
+      <c r="CF99" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
@@ -25039,6 +25338,9 @@
         <v>0</v>
       </c>
       <c r="CE100" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF100" t="n">
         <v>0</v>
       </c>
     </row>
@@ -25278,6 +25580,9 @@
       <c r="CE101" t="n">
         <v>0</v>
       </c>
+      <c r="CF101" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
@@ -25519,6 +25824,9 @@
       <c r="CE102" t="n">
         <v>0</v>
       </c>
+      <c r="CF102" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
@@ -25768,6 +26076,9 @@
       <c r="CE103" t="n">
         <v>0</v>
       </c>
+      <c r="CF103" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
@@ -26013,6 +26324,9 @@
       <c r="CE104" t="n">
         <v>0</v>
       </c>
+      <c r="CF104" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
@@ -26256,6 +26570,9 @@
         <v>0</v>
       </c>
       <c r="CE105" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF105" t="n">
         <v>0</v>
       </c>
     </row>
@@ -26495,6 +26812,9 @@
       <c r="CE106" t="n">
         <v>0</v>
       </c>
+      <c r="CF106" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
@@ -26732,6 +27052,9 @@
       <c r="CE107" t="n">
         <v>0</v>
       </c>
+      <c r="CF107" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
@@ -26977,6 +27300,9 @@
       <c r="CE108" t="n">
         <v>0</v>
       </c>
+      <c r="CF108" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
@@ -27224,6 +27550,9 @@
         <v>0</v>
       </c>
       <c r="CE109" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF109" t="n">
         <v>0</v>
       </c>
     </row>
@@ -27463,6 +27792,9 @@
       <c r="CE110" t="n">
         <v>0</v>
       </c>
+      <c r="CF110" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
@@ -27704,6 +28036,9 @@
       <c r="CE111" t="n">
         <v>0</v>
       </c>
+      <c r="CF111" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
@@ -27945,6 +28280,9 @@
       <c r="CE112" t="n">
         <v>0</v>
       </c>
+      <c r="CF112" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
@@ -28186,6 +28524,9 @@
       <c r="CE113" t="n">
         <v>0</v>
       </c>
+      <c r="CF113" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
@@ -28435,6 +28776,9 @@
       <c r="CE114" t="n">
         <v>0</v>
       </c>
+      <c r="CF114" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
@@ -28676,6 +29020,9 @@
       <c r="CE115" t="n">
         <v>0</v>
       </c>
+      <c r="CF115" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
@@ -28915,6 +29262,9 @@
         <v>0</v>
       </c>
       <c r="CE116" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF116" t="n">
         <v>0</v>
       </c>
     </row>
@@ -29154,6 +29504,9 @@
       <c r="CE117" t="n">
         <v>0</v>
       </c>
+      <c r="CF117" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
@@ -29399,6 +29752,9 @@
       <c r="CE118" t="n">
         <v>0</v>
       </c>
+      <c r="CF118" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
@@ -29632,6 +29988,9 @@
       <c r="CE119" t="n">
         <v>0</v>
       </c>
+      <c r="CF119" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
@@ -29873,6 +30232,9 @@
       <c r="CE120" t="n">
         <v>0</v>
       </c>
+      <c r="CF120" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
@@ -30118,6 +30480,9 @@
       <c r="CE121" t="n">
         <v>0</v>
       </c>
+      <c r="CF121" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
@@ -30365,6 +30730,9 @@
         <v>0</v>
       </c>
       <c r="CE122" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF122" t="n">
         <v>0</v>
       </c>
     </row>
@@ -30604,6 +30972,9 @@
       <c r="CE123" t="n">
         <v>0</v>
       </c>
+      <c r="CF123" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
@@ -30845,6 +31216,9 @@
       <c r="CE124" t="n">
         <v>0</v>
       </c>
+      <c r="CF124" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
@@ -31086,6 +31460,9 @@
       <c r="CE125" t="n">
         <v>0</v>
       </c>
+      <c r="CF125" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
@@ -31325,6 +31702,9 @@
         <v>0</v>
       </c>
       <c r="CE126" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF126" t="n">
         <v>0</v>
       </c>
     </row>
@@ -31572,6 +31952,9 @@
       <c r="CE127" t="n">
         <v>0</v>
       </c>
+      <c r="CF127" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
@@ -31815,6 +32198,9 @@
         <v>0</v>
       </c>
       <c r="CE128" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF128" t="n">
         <v>0</v>
       </c>
     </row>
@@ -32066,6 +32452,9 @@
       <c r="CE129" t="n">
         <v>0</v>
       </c>
+      <c r="CF129" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
@@ -32317,6 +32706,9 @@
         <v>0</v>
       </c>
       <c r="CE130" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF130" t="n">
         <v>0</v>
       </c>
     </row>
@@ -32552,6 +32944,9 @@
       <c r="CE131" t="n">
         <v>0</v>
       </c>
+      <c r="CF131" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
@@ -32805,6 +33200,9 @@
       <c r="CE132" t="n">
         <v>0</v>
       </c>
+      <c r="CF132" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
@@ -33056,6 +33454,9 @@
         <v>0</v>
       </c>
       <c r="CE133" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF133" t="n">
         <v>0</v>
       </c>
     </row>
@@ -33303,6 +33704,9 @@
       <c r="CE134" t="n">
         <v>0</v>
       </c>
+      <c r="CF134" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
@@ -33548,6 +33952,9 @@
       <c r="CE135" t="n">
         <v>0</v>
       </c>
+      <c r="CF135" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
@@ -33794,6 +34201,9 @@
       </c>
       <c r="CE136" t="n">
         <v>0</v>
+      </c>
+      <c r="CF136" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="137">
@@ -34032,6 +34442,9 @@
       <c r="CE137" t="n">
         <v>0</v>
       </c>
+      <c r="CF137" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
@@ -34265,6 +34678,9 @@
       <c r="CE138" t="n">
         <v>0</v>
       </c>
+      <c r="CF138" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
@@ -34510,6 +34926,9 @@
       <c r="CE139" t="n">
         <v>0</v>
       </c>
+      <c r="CF139" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
@@ -34757,6 +35176,9 @@
         <v>0</v>
       </c>
       <c r="CE140" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF140" t="n">
         <v>0</v>
       </c>
     </row>
@@ -35000,6 +35422,9 @@
       <c r="CE141" t="n">
         <v>0</v>
       </c>
+      <c r="CF141" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
@@ -35247,6 +35672,9 @@
         <v>0</v>
       </c>
       <c r="CE142" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF142" t="n">
         <v>0</v>
       </c>
     </row>
@@ -35494,6 +35922,9 @@
       <c r="CE143" t="n">
         <v>0</v>
       </c>
+      <c r="CF143" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
@@ -35735,6 +36166,9 @@
       <c r="CE144" t="n">
         <v>0</v>
       </c>
+      <c r="CF144" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
@@ -35976,6 +36410,9 @@
       <c r="CE145" t="n">
         <v>0</v>
       </c>
+      <c r="CF145" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
@@ -36221,6 +36658,9 @@
       <c r="CE146" t="n">
         <v>0</v>
       </c>
+      <c r="CF146" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
@@ -36464,6 +36904,9 @@
         <v>0</v>
       </c>
       <c r="CE147" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF147" t="n">
         <v>0</v>
       </c>
     </row>
@@ -36703,6 +37146,9 @@
       <c r="CE148" t="n">
         <v>0</v>
       </c>
+      <c r="CF148" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
@@ -36936,6 +37382,9 @@
       <c r="CE149" t="n">
         <v>0</v>
       </c>
+      <c r="CF149" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
@@ -37169,6 +37618,9 @@
       <c r="CE150" t="n">
         <v>0</v>
       </c>
+      <c r="CF150" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
@@ -37402,6 +37854,9 @@
       <c r="CE151" t="n">
         <v>0</v>
       </c>
+      <c r="CF151" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
@@ -37651,6 +38106,9 @@
       <c r="CE152" t="n">
         <v>0</v>
       </c>
+      <c r="CF152" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
@@ -37886,6 +38344,9 @@
         <v>0</v>
       </c>
       <c r="CE153" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF153" t="n">
         <v>0</v>
       </c>
     </row>
@@ -38129,6 +38590,9 @@
       <c r="CE154" t="n">
         <v>0</v>
       </c>
+      <c r="CF154" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
@@ -38372,6 +38836,9 @@
         <v>0</v>
       </c>
       <c r="CE155" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF155" t="n">
         <v>0</v>
       </c>
     </row>
@@ -38611,6 +39078,9 @@
       <c r="CE156" t="n">
         <v>0</v>
       </c>
+      <c r="CF156" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
@@ -38852,6 +39322,9 @@
       <c r="CE157" t="n">
         <v>0</v>
       </c>
+      <c r="CF157" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
@@ -39093,6 +39566,9 @@
       <c r="CE158" t="n">
         <v>0</v>
       </c>
+      <c r="CF158" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
@@ -39326,6 +39802,9 @@
       <c r="CE159" t="n">
         <v>0</v>
       </c>
+      <c r="CF159" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
@@ -39569,6 +40048,9 @@
         <v>0</v>
       </c>
       <c r="CE160" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF160" t="n">
         <v>0</v>
       </c>
     </row>
@@ -39812,6 +40294,9 @@
       <c r="CE161" t="n">
         <v>0</v>
       </c>
+      <c r="CF161" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
@@ -40057,6 +40542,9 @@
       <c r="CE162" t="n">
         <v>0</v>
       </c>
+      <c r="CF162" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
@@ -40298,6 +40786,9 @@
       <c r="CE163" t="n">
         <v>0</v>
       </c>
+      <c r="CF163" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
@@ -40537,6 +41028,9 @@
         <v>0</v>
       </c>
       <c r="CE164" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF164" t="n">
         <v>0</v>
       </c>
     </row>
@@ -40784,6 +41278,9 @@
       <c r="CE165" t="n">
         <v>0</v>
       </c>
+      <c r="CF165" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
@@ -41027,6 +41524,9 @@
         <v>0</v>
       </c>
       <c r="CE166" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF166" t="n">
         <v>0</v>
       </c>
     </row>
@@ -41266,6 +41766,9 @@
       <c r="CE167" t="n">
         <v>0</v>
       </c>
+      <c r="CF167" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
@@ -41505,6 +42008,9 @@
         <v>0</v>
       </c>
       <c r="CE168" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF168" t="n">
         <v>0</v>
       </c>
     </row>
@@ -41740,6 +42246,9 @@
       <c r="CE169" t="n">
         <v>0</v>
       </c>
+      <c r="CF169" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
@@ -41985,6 +42494,9 @@
       <c r="CE170" t="n">
         <v>0</v>
       </c>
+      <c r="CF170" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
@@ -42230,6 +42742,9 @@
       <c r="CE171" t="n">
         <v>0</v>
       </c>
+      <c r="CF171" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
@@ -42475,6 +42990,9 @@
       <c r="CE172" t="n">
         <v>0</v>
       </c>
+      <c r="CF172" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
@@ -42720,6 +43238,9 @@
       <c r="CE173" t="n">
         <v>0</v>
       </c>
+      <c r="CF173" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
@@ -42959,6 +43480,9 @@
         <v>0</v>
       </c>
       <c r="CE174" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF174" t="n">
         <v>0</v>
       </c>
     </row>
@@ -43206,6 +43730,9 @@
       <c r="CE175" t="n">
         <v>0</v>
       </c>
+      <c r="CF175" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
@@ -43451,6 +43978,9 @@
       <c r="CE176" t="n">
         <v>0</v>
       </c>
+      <c r="CF176" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
@@ -43680,6 +44210,9 @@
       <c r="CE177" t="n">
         <v>0</v>
       </c>
+      <c r="CF177" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr">
@@ -43913,6 +44446,9 @@
       <c r="CE178" t="n">
         <v>0</v>
       </c>
+      <c r="CF178" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr">
@@ -44146,6 +44682,9 @@
       <c r="CE179" t="n">
         <v>0</v>
       </c>
+      <c r="CF179" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="180">
       <c r="A180" t="inlineStr">
@@ -44387,6 +44926,9 @@
       <c r="CE180" t="n">
         <v>0</v>
       </c>
+      <c r="CF180" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr">
@@ -44634,6 +45176,9 @@
         <v>0</v>
       </c>
       <c r="CE181" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF181" t="n">
         <v>0</v>
       </c>
     </row>
@@ -44869,6 +45414,9 @@
       <c r="CE182" t="n">
         <v>0</v>
       </c>
+      <c r="CF182" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="183">
       <c r="A183" t="inlineStr">
@@ -45112,6 +45660,9 @@
         <v>0</v>
       </c>
       <c r="CE183" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF183" t="n">
         <v>0</v>
       </c>
     </row>
@@ -45361,6 +45912,9 @@
         <v>0</v>
       </c>
       <c r="CE184" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF184" t="n">
         <v>0</v>
       </c>
     </row>
@@ -45600,6 +46154,9 @@
       <c r="CE185" t="n">
         <v>0</v>
       </c>
+      <c r="CF185" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="186">
       <c r="A186" t="inlineStr">
@@ -45839,6 +46396,9 @@
         <v>0</v>
       </c>
       <c r="CE186" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF186" t="n">
         <v>0</v>
       </c>
     </row>
@@ -46078,6 +46638,9 @@
       <c r="CE187" t="n">
         <v>0</v>
       </c>
+      <c r="CF187" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="188">
       <c r="A188" t="inlineStr">
@@ -46315,6 +46878,9 @@
       <c r="CE188" t="n">
         <v>0</v>
       </c>
+      <c r="CF188" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="189">
       <c r="A189" t="inlineStr">
@@ -46564,6 +47130,9 @@
       <c r="CE189" t="n">
         <v>0</v>
       </c>
+      <c r="CF189" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="190">
       <c r="A190" t="inlineStr">
@@ -46811,6 +47380,9 @@
         <v>0</v>
       </c>
       <c r="CE190" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF190" t="n">
         <v>0</v>
       </c>
     </row>
@@ -47058,6 +47630,9 @@
       <c r="CE191" t="n">
         <v>0</v>
       </c>
+      <c r="CF191" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="192">
       <c r="A192" t="inlineStr">
@@ -47293,6 +47868,9 @@
         <v>0</v>
       </c>
       <c r="CE192" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF192" t="n">
         <v>0</v>
       </c>
     </row>
@@ -47536,6 +48114,9 @@
       <c r="CE193" t="n">
         <v>0</v>
       </c>
+      <c r="CF193" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="194">
       <c r="A194" t="inlineStr">
@@ -47779,6 +48360,9 @@
         <v>0</v>
       </c>
       <c r="CE194" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF194" t="n">
         <v>0</v>
       </c>
     </row>
@@ -48018,6 +48602,9 @@
       <c r="CE195" t="n">
         <v>0</v>
       </c>
+      <c r="CF195" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="196">
       <c r="A196" t="inlineStr">
@@ -48259,6 +48846,9 @@
       <c r="CE196" t="n">
         <v>0</v>
       </c>
+      <c r="CF196" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="197">
       <c r="A197" t="inlineStr">
@@ -48500,6 +49090,9 @@
       <c r="CE197" t="n">
         <v>0</v>
       </c>
+      <c r="CF197" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="198">
       <c r="A198" t="inlineStr">
@@ -48749,6 +49342,9 @@
       <c r="CE198" t="n">
         <v>0</v>
       </c>
+      <c r="CF198" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="199">
       <c r="A199" t="inlineStr">
@@ -48996,6 +49592,9 @@
         <v>0</v>
       </c>
       <c r="CE199" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF199" t="n">
         <v>0</v>
       </c>
     </row>
@@ -49247,6 +49846,9 @@
       <c r="CE200" t="n">
         <v>0</v>
       </c>
+      <c r="CF200" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="201">
       <c r="A201" t="inlineStr">
@@ -49486,6 +50088,9 @@
         <v>0</v>
       </c>
       <c r="CE201" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF201" t="n">
         <v>0</v>
       </c>
     </row>
@@ -49725,6 +50330,9 @@
       <c r="CE202" t="n">
         <v>0</v>
       </c>
+      <c r="CF202" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="203">
       <c r="A203" t="inlineStr">
@@ -49954,6 +50562,9 @@
       <c r="CE203" t="n">
         <v>0</v>
       </c>
+      <c r="CF203" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="204">
       <c r="A204" t="inlineStr">
@@ -50191,6 +50802,9 @@
       <c r="CE204" t="n">
         <v>0</v>
       </c>
+      <c r="CF204" t="n">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
